--- a/SldcPlantpointPredictions_20Apr22.xlsx
+++ b/SldcPlantpointPredictions_20Apr22.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adire\OneDrive\Desktop\gitrepo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6086C2EE-2F6E-4D8B-B2FC-F9DA8F5ED166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rf" sheetId="1" r:id="rId1"/>
     <sheet name="temp" sheetId="2" r:id="rId2"/>
     <sheet name="rh" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -921,8 +927,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,6 +991,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1031,7 +1045,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1063,9 +1077,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1097,6 +1129,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1272,14 +1322,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1322,7 +1374,7 @@
         <v>21</v>
       </c>
       <c r="F2">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G2">
         <v>0.02</v>
@@ -1331,7 +1383,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1357,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1383,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1409,7 +1461,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1435,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1461,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1487,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1513,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1539,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1556,7 +1608,7 @@
         <v>30</v>
       </c>
       <c r="F11">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1565,7 +1617,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1591,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1617,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1643,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1669,7 +1721,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1695,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1721,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1747,7 +1799,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1773,7 +1825,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1799,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1825,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1851,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1877,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1903,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1929,7 +1981,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1955,7 +2007,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1981,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2007,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2033,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2059,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2085,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2111,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2137,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2163,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2189,7 +2241,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2215,7 +2267,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2241,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2267,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2293,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2319,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2345,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2371,7 +2423,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2397,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2414,7 +2466,7 @@
         <v>63</v>
       </c>
       <c r="F44">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G44">
         <v>0.12</v>
@@ -2423,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2449,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2475,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2501,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2527,7 +2579,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2553,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2579,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2605,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2631,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2657,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2683,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2709,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2735,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2761,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2787,7 +2839,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2813,7 +2865,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2839,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2865,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2891,7 +2943,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2914,10 +2966,10 @@
         <v>0.08</v>
       </c>
       <c r="H63">
-        <v>0.009999999999999979</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>9.9999999999999794E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2943,7 +2995,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2969,7 +3021,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2995,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3021,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3047,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3073,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3099,7 +3151,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3125,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3151,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3177,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3203,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3229,7 +3281,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3255,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3281,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3307,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3333,7 +3385,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3359,7 +3411,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3385,7 +3437,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3411,7 +3463,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3437,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3463,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3489,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3515,7 +3567,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3541,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3567,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3593,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3619,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3642,10 +3694,10 @@
         <v>0.03</v>
       </c>
       <c r="H91">
-        <v>0.009999999999999979</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>9.9999999999999794E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3671,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3697,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3723,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3749,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3775,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3801,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3827,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3853,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3879,7 +3931,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3905,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3931,7 +3983,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3957,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3983,7 +4035,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4009,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4035,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4061,7 +4113,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4087,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4113,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4139,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4165,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4191,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4217,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4243,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4269,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4295,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4321,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4347,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4373,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4399,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4425,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4451,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4477,7 +4529,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4503,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4529,7 +4581,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4555,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4581,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4607,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4633,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4659,7 +4711,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4685,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4711,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4737,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4763,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4789,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4815,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4841,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4867,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4893,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4919,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4945,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4971,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4997,7 +5049,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5023,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5046,10 +5098,10 @@
         <v>0.03</v>
       </c>
       <c r="H145">
-        <v>0.009999999999999979</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>9.9999999999999794E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5075,7 +5127,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5101,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5127,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5144,7 +5196,7 @@
         <v>164</v>
       </c>
       <c r="F149">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G149">
         <v>0.02</v>
@@ -5153,7 +5205,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5179,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5205,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5231,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5257,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5283,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5300,7 +5352,7 @@
         <v>170</v>
       </c>
       <c r="F155">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -5309,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5335,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5361,7 +5413,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5387,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5413,7 +5465,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5439,7 +5491,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5465,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5491,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5517,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5543,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5569,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5592,10 +5644,10 @@
         <v>0.19</v>
       </c>
       <c r="H166">
-        <v>0.0600000000000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>6.0000000000000102E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5621,7 +5673,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5638,7 +5690,7 @@
         <v>182</v>
       </c>
       <c r="F168">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G168">
         <v>0.15</v>
@@ -5647,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5673,7 +5725,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5699,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5722,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5751,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5777,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5803,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5829,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5855,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5881,7 +5933,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5907,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5933,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5959,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5985,7 +6037,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6011,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6037,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6063,7 +6115,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6089,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -6115,7 +6167,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -6141,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6167,7 +6219,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6193,7 +6245,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6219,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6245,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6271,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6297,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6323,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6349,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6369,13 +6421,13 @@
         <v>0.05</v>
       </c>
       <c r="G196">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H196">
         <v>0.08</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6401,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6427,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6453,7 +6505,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6479,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6505,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6531,7 +6583,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -6554,10 +6606,10 @@
         <v>0.12</v>
       </c>
       <c r="H203">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6574,7 +6626,7 @@
         <v>218</v>
       </c>
       <c r="F204">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G204">
         <v>0.03</v>
@@ -6583,7 +6635,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -6609,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -6635,7 +6687,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6661,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6687,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6713,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -6739,7 +6791,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -6765,7 +6817,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -6791,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -6817,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -6843,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -6869,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6895,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6921,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6947,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6973,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6999,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -7025,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -7051,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -7077,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -7103,7 +7155,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -7129,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -7155,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -7181,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -7207,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -7233,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -7259,7 +7311,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -7285,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -7311,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -7337,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -7363,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -7389,7 +7441,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -7415,7 +7467,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -7441,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -7467,7 +7519,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -7493,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -7519,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -7545,7 +7597,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -7568,10 +7620,10 @@
         <v>0.06</v>
       </c>
       <c r="H242">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -7594,10 +7646,10 @@
         <v>0.06</v>
       </c>
       <c r="H243">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -7617,13 +7669,13 @@
         <v>0.03</v>
       </c>
       <c r="G244">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H244">
         <v>0.04</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -7649,7 +7701,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -7675,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -7701,7 +7753,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -7727,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -7753,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -7779,7 +7831,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -7805,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -7831,7 +7883,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -7857,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -7883,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -7909,7 +7961,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -7935,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -7961,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -7987,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -8013,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -8039,7 +8091,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -8065,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -8091,7 +8143,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -8117,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -8134,7 +8186,7 @@
         <v>277</v>
       </c>
       <c r="F264">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G264">
         <v>0.03</v>
@@ -8143,7 +8195,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -8169,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -8195,7 +8247,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -8215,13 +8267,13 @@
         <v>0.06</v>
       </c>
       <c r="G267">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H267">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -8247,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -8273,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -8299,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -8325,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -8351,7 +8403,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -8377,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -8403,7 +8455,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -8429,7 +8481,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -8455,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -8481,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -8507,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -8533,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -8559,7 +8611,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -8585,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -8611,7 +8663,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -8634,10 +8686,10 @@
         <v>0.19</v>
       </c>
       <c r="H283">
-        <v>0.0600000000000001</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>6.0000000000000102E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -8663,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -8686,7 +8738,7 @@
         <v>0.06</v>
       </c>
       <c r="H285">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8695,14 +8747,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8728,7 +8780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8754,7 +8806,7 @@
         <v>39.75</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8780,7 +8832,7 @@
         <v>38.06</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8806,7 +8858,7 @@
         <v>42.15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8823,16 +8875,16 @@
         <v>27</v>
       </c>
       <c r="F5">
-        <v>35.87</v>
+        <v>35.869999999999997</v>
       </c>
       <c r="G5">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="H5">
         <v>36.33</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8858,7 +8910,7 @@
         <v>40.93</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8884,7 +8936,7 @@
         <v>40.92</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8904,13 +8956,13 @@
         <v>33.31</v>
       </c>
       <c r="G8">
-        <v>33.27</v>
+        <v>33.270000000000003</v>
       </c>
       <c r="H8">
         <v>33.56</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8936,7 +8988,7 @@
         <v>40.31</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8953,16 +9005,16 @@
         <v>43</v>
       </c>
       <c r="F10">
-        <v>34.87</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="G10">
         <v>34.79</v>
       </c>
       <c r="H10">
-        <v>35.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>35.049999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8985,10 +9037,10 @@
         <v>36.72</v>
       </c>
       <c r="H11">
-        <v>39.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9005,16 +9057,16 @@
         <v>48</v>
       </c>
       <c r="F12">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="G12">
         <v>39.56</v>
       </c>
       <c r="H12">
-        <v>39.59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>39.590000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9040,7 +9092,7 @@
         <v>41.09</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9060,13 +9112,13 @@
         <v>41.34</v>
       </c>
       <c r="G14">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="H14">
-        <v>40.09</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>40.090000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9092,7 +9144,7 @@
         <v>31.42</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9109,16 +9161,16 @@
         <v>13</v>
       </c>
       <c r="F16">
-        <v>36.73</v>
+        <v>36.729999999999997</v>
       </c>
       <c r="G16">
-        <v>35.87</v>
+        <v>35.869999999999997</v>
       </c>
       <c r="H16">
         <v>36.86</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9144,7 +9196,7 @@
         <v>37.67</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9167,10 +9219,10 @@
         <v>38.69</v>
       </c>
       <c r="H18">
-        <v>39.84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>39.840000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9187,16 +9239,16 @@
         <v>83</v>
       </c>
       <c r="F19">
-        <v>38.73</v>
+        <v>38.729999999999997</v>
       </c>
       <c r="G19">
         <v>38.86</v>
       </c>
       <c r="H19">
-        <v>39.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9222,7 +9274,7 @@
         <v>41.25</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9242,13 +9294,13 @@
         <v>38.39</v>
       </c>
       <c r="G21">
-        <v>37.73</v>
+        <v>37.729999999999997</v>
       </c>
       <c r="H21">
         <v>37.36</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9268,13 +9320,13 @@
         <v>37.64</v>
       </c>
       <c r="G22">
-        <v>38.62</v>
+        <v>38.619999999999997</v>
       </c>
       <c r="H22">
         <v>39.81</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9300,7 +9352,7 @@
         <v>39.61</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9320,13 +9372,13 @@
         <v>36.94</v>
       </c>
       <c r="G24">
-        <v>37.73</v>
+        <v>37.729999999999997</v>
       </c>
       <c r="H24">
         <v>38.25</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9343,7 +9395,7 @@
         <v>94</v>
       </c>
       <c r="F25">
-        <v>39.12</v>
+        <v>39.119999999999997</v>
       </c>
       <c r="G25">
         <v>38.56</v>
@@ -9352,7 +9404,7 @@
         <v>38.47</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9378,7 +9430,7 @@
         <v>40.79</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9404,7 +9456,7 @@
         <v>41.22</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9427,10 +9479,10 @@
         <v>41.06</v>
       </c>
       <c r="H28">
-        <v>40.84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>40.840000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9450,13 +9502,13 @@
         <v>38.06</v>
       </c>
       <c r="G29">
-        <v>37.73</v>
+        <v>37.729999999999997</v>
       </c>
       <c r="H29">
-        <v>37.12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>37.119999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9479,10 +9531,10 @@
         <v>38.31</v>
       </c>
       <c r="H30">
-        <v>39.48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>39.479999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9508,7 +9560,7 @@
         <v>41.34</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9531,10 +9583,10 @@
         <v>36.97</v>
       </c>
       <c r="H32">
-        <v>37.38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>37.380000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9560,7 +9612,7 @@
         <v>35.65</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9586,7 +9638,7 @@
         <v>41.34</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9606,13 +9658,13 @@
         <v>41.53</v>
       </c>
       <c r="G35">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="H35">
         <v>41.12</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9629,7 +9681,7 @@
         <v>147</v>
       </c>
       <c r="F36">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="G36">
         <v>35.75</v>
@@ -9638,7 +9690,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9655,16 +9707,16 @@
         <v>148</v>
       </c>
       <c r="F37">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="G37">
         <v>35.14</v>
       </c>
       <c r="H37">
-        <v>35.12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>35.119999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9690,7 +9742,7 @@
         <v>40.61</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9710,13 +9762,13 @@
         <v>41.3</v>
       </c>
       <c r="G39">
-        <v>40.45</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="H39">
         <v>39.92</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9742,7 +9794,7 @@
         <v>42.01</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9765,10 +9817,10 @@
         <v>38.4</v>
       </c>
       <c r="H41">
-        <v>39.62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>39.619999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9791,10 +9843,10 @@
         <v>36.69</v>
       </c>
       <c r="H42">
-        <v>36.91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>36.909999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9811,16 +9863,16 @@
         <v>174</v>
       </c>
       <c r="F43">
-        <v>38.91</v>
+        <v>38.909999999999997</v>
       </c>
       <c r="G43">
-        <v>38.34</v>
+        <v>38.340000000000003</v>
       </c>
       <c r="H43">
-        <v>39.59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>39.590000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9846,7 +9898,7 @@
         <v>36.76</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9872,7 +9924,7 @@
         <v>40.58</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9889,16 +9941,16 @@
         <v>181</v>
       </c>
       <c r="F46">
-        <v>35.41</v>
+        <v>35.409999999999997</v>
       </c>
       <c r="G46">
         <v>34.56</v>
       </c>
       <c r="H46">
-        <v>34.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9915,16 +9967,16 @@
         <v>182</v>
       </c>
       <c r="F47">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="G47">
-        <v>37.02</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="H47">
         <v>38.29</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9947,10 +9999,10 @@
         <v>40.76</v>
       </c>
       <c r="H48">
-        <v>40.48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>40.479999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9967,16 +10019,16 @@
         <v>189</v>
       </c>
       <c r="F49">
-        <v>36.05</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="G49">
         <v>36.79</v>
       </c>
       <c r="H49">
-        <v>37.48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>37.479999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9996,13 +10048,13 @@
         <v>39.78</v>
       </c>
       <c r="G50">
-        <v>39.23</v>
+        <v>39.229999999999997</v>
       </c>
       <c r="H50">
         <v>40.11</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10028,7 +10080,7 @@
         <v>42.04</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10051,10 +10103,10 @@
         <v>36.4</v>
       </c>
       <c r="H52">
-        <v>37.23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>37.229999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10074,13 +10126,13 @@
         <v>38.03</v>
       </c>
       <c r="G53">
-        <v>37.95</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="H53">
         <v>38.92</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10097,7 +10149,7 @@
         <v>223</v>
       </c>
       <c r="F54">
-        <v>39.41</v>
+        <v>39.409999999999997</v>
       </c>
       <c r="G54">
         <v>39.15</v>
@@ -10106,7 +10158,7 @@
         <v>39.22</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10126,13 +10178,13 @@
         <v>41.36</v>
       </c>
       <c r="G55">
-        <v>40.37</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="H55">
         <v>41.09</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10158,7 +10210,7 @@
         <v>35.08</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10184,7 +10236,7 @@
         <v>40.42</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10201,7 +10253,7 @@
         <v>20</v>
       </c>
       <c r="F58">
-        <v>33.66</v>
+        <v>33.659999999999997</v>
       </c>
       <c r="G58">
         <v>34.43</v>
@@ -10210,7 +10262,7 @@
         <v>35.07</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10227,7 +10279,7 @@
         <v>241</v>
       </c>
       <c r="F59">
-        <v>40.16</v>
+        <v>40.159999999999997</v>
       </c>
       <c r="G59">
         <v>39.22</v>
@@ -10236,7 +10288,7 @@
         <v>39.76</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -10262,7 +10314,7 @@
         <v>36.46</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -10288,7 +10340,7 @@
         <v>40.64</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -10305,7 +10357,7 @@
         <v>248</v>
       </c>
       <c r="F62">
-        <v>36.73</v>
+        <v>36.729999999999997</v>
       </c>
       <c r="G62">
         <v>37.53</v>
@@ -10314,7 +10366,7 @@
         <v>38.28</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -10334,13 +10386,13 @@
         <v>35.92</v>
       </c>
       <c r="G63">
-        <v>36.48</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="H63">
         <v>36.67</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -10360,13 +10412,13 @@
         <v>38.44</v>
       </c>
       <c r="G64">
-        <v>39.12</v>
+        <v>39.119999999999997</v>
       </c>
       <c r="H64">
-        <v>39.7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -10389,10 +10441,10 @@
         <v>36.69</v>
       </c>
       <c r="H65">
-        <v>37.45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>37.450000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -10412,13 +10464,13 @@
         <v>35.19</v>
       </c>
       <c r="G66">
-        <v>36.02</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="H66">
-        <v>37.02</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>37.020000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -10444,7 +10496,7 @@
         <v>39.89</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -10461,7 +10513,7 @@
         <v>264</v>
       </c>
       <c r="F68">
-        <v>40.95</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="G68">
         <v>40.56</v>
@@ -10470,7 +10522,7 @@
         <v>40.08</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -10496,7 +10548,7 @@
         <v>40.81</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -10516,13 +10568,13 @@
         <v>38.36</v>
       </c>
       <c r="G70">
-        <v>38.84</v>
+        <v>38.840000000000003</v>
       </c>
       <c r="H70">
-        <v>39.12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>39.119999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -10548,7 +10600,7 @@
         <v>40.51</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -10574,7 +10626,7 @@
         <v>31.77</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -10600,7 +10652,7 @@
         <v>40.14</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -10623,10 +10675,10 @@
         <v>40.94</v>
       </c>
       <c r="H74">
-        <v>40.62</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>40.619999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -10643,7 +10695,7 @@
         <v>16</v>
       </c>
       <c r="F75">
-        <v>37.16</v>
+        <v>37.159999999999997</v>
       </c>
       <c r="G75">
         <v>37.61</v>
@@ -10652,7 +10704,7 @@
         <v>38.79</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -10684,14 +10736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10717,7 +10769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10734,7 +10786,7 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <v>39.41</v>
+        <v>39.409999999999997</v>
       </c>
       <c r="G2">
         <v>36.15</v>
@@ -10743,7 +10795,7 @@
         <v>37.06</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10769,7 +10821,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10786,7 +10838,7 @@
         <v>27</v>
       </c>
       <c r="F4">
-        <v>67.59999999999999</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="G4">
         <v>66.58</v>
@@ -10795,7 +10847,7 @@
         <v>68.13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10821,7 +10873,7 @@
         <v>44.04</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10847,7 +10899,7 @@
         <v>41.33</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10873,7 +10925,7 @@
         <v>72.92</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10896,10 +10948,10 @@
         <v>29.82</v>
       </c>
       <c r="H8">
-        <v>34.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>34.020000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10916,16 +10968,16 @@
         <v>43</v>
       </c>
       <c r="F9">
-        <v>68.20999999999999</v>
+        <v>68.209999999999994</v>
       </c>
       <c r="G9">
         <v>66.34</v>
       </c>
       <c r="H9">
-        <v>69.68000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>69.680000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10945,13 +10997,13 @@
         <v>36.29</v>
       </c>
       <c r="G10">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="H10">
         <v>37.79</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10977,7 +11029,7 @@
         <v>43.12</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11003,7 +11055,7 @@
         <v>59.25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11023,13 +11075,13 @@
         <v>79.11</v>
       </c>
       <c r="G13">
-        <v>73.98999999999999</v>
+        <v>73.989999999999995</v>
       </c>
       <c r="H13">
         <v>78.8</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11055,7 +11107,7 @@
         <v>62.69</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11081,7 +11133,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11107,7 +11159,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11133,7 +11185,7 @@
         <v>31.59</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11150,16 +11202,16 @@
         <v>88</v>
       </c>
       <c r="F18">
-        <v>34.87</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="G18">
-        <v>34.55</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="H18">
         <v>35.06</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11176,7 +11228,7 @@
         <v>89</v>
       </c>
       <c r="F19">
-        <v>64.48999999999999</v>
+        <v>64.489999999999995</v>
       </c>
       <c r="G19">
         <v>61.66</v>
@@ -11185,7 +11237,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11211,7 +11263,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11237,7 +11289,7 @@
         <v>62.74</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11260,10 +11312,10 @@
         <v>37.58</v>
       </c>
       <c r="H22">
-        <v>40.37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11289,7 +11341,7 @@
         <v>28.63</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11315,7 +11367,7 @@
         <v>41.34</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11341,7 +11393,7 @@
         <v>46.12</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11367,7 +11419,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11393,7 +11445,7 @@
         <v>36.85</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11413,13 +11465,13 @@
         <v>70.66</v>
       </c>
       <c r="G28">
-        <v>67.09999999999999</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="H28">
         <v>67.12</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11439,13 +11491,13 @@
         <v>71.41</v>
       </c>
       <c r="G29">
-        <v>68.04000000000001</v>
+        <v>68.040000000000006</v>
       </c>
       <c r="H29">
-        <v>70.43000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>70.430000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11471,7 +11523,7 @@
         <v>48.97</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11491,13 +11543,13 @@
         <v>68.92</v>
       </c>
       <c r="G31">
-        <v>65.15000000000001</v>
+        <v>65.150000000000006</v>
       </c>
       <c r="H31">
-        <v>67.98999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>67.989999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11523,7 +11575,7 @@
         <v>56.04</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11549,7 +11601,7 @@
         <v>40.68</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11575,7 +11627,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11601,7 +11653,7 @@
         <v>68.55</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11621,13 +11673,13 @@
         <v>72.05</v>
       </c>
       <c r="G36">
-        <v>68.23999999999999</v>
+        <v>68.239999999999995</v>
       </c>
       <c r="H36">
         <v>67.53</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11644,7 +11696,7 @@
         <v>178</v>
       </c>
       <c r="F37">
-        <v>39.84</v>
+        <v>39.840000000000003</v>
       </c>
       <c r="G37">
         <v>39.06</v>
@@ -11653,7 +11705,7 @@
         <v>40.33</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11670,16 +11722,16 @@
         <v>182</v>
       </c>
       <c r="F38">
-        <v>69.40000000000001</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="G38">
-        <v>66.45999999999999</v>
+        <v>66.459999999999994</v>
       </c>
       <c r="H38">
         <v>65.08</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11705,7 +11757,7 @@
         <v>42.23</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11728,10 +11780,10 @@
         <v>63.96</v>
       </c>
       <c r="H40">
-        <v>66.31999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>66.319999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11757,7 +11809,7 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11774,7 +11826,7 @@
         <v>217</v>
       </c>
       <c r="F42">
-        <v>64.70999999999999</v>
+        <v>64.709999999999994</v>
       </c>
       <c r="G42">
         <v>62.82</v>
@@ -11783,7 +11835,7 @@
         <v>62.35</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11803,13 +11855,13 @@
         <v>36</v>
       </c>
       <c r="G43">
-        <v>40.66</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="H43">
         <v>37.25</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11835,7 +11887,7 @@
         <v>51.06</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11861,7 +11913,7 @@
         <v>68.41</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11884,10 +11936,10 @@
         <v>32.49</v>
       </c>
       <c r="H46">
-        <v>36.63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>36.630000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11913,7 +11965,7 @@
         <v>72.48</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11930,16 +11982,16 @@
         <v>242</v>
       </c>
       <c r="F48">
-        <v>65.70999999999999</v>
+        <v>65.709999999999994</v>
       </c>
       <c r="G48">
         <v>63.75</v>
       </c>
       <c r="H48">
-        <v>66.84999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>66.849999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11965,7 +12017,7 @@
         <v>58.75</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11991,7 +12043,7 @@
         <v>62.99</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12008,7 +12060,7 @@
         <v>249</v>
       </c>
       <c r="F51">
-        <v>67.68000000000001</v>
+        <v>67.680000000000007</v>
       </c>
       <c r="G51">
         <v>64.19</v>
@@ -12017,7 +12069,7 @@
         <v>64.87</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12043,7 +12095,7 @@
         <v>58.33</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12069,7 +12121,7 @@
         <v>59.65</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12086,16 +12138,16 @@
         <v>258</v>
       </c>
       <c r="F54">
-        <v>70.45999999999999</v>
+        <v>70.459999999999994</v>
       </c>
       <c r="G54">
-        <v>69.59999999999999</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="H54">
         <v>69.78</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12121,7 +12173,7 @@
         <v>54.98</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12147,7 +12199,7 @@
         <v>29.68</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12164,7 +12216,7 @@
         <v>271</v>
       </c>
       <c r="F57">
-        <v>40.05</v>
+        <v>40.049999999999997</v>
       </c>
       <c r="G57">
         <v>41.3</v>
@@ -12173,7 +12225,7 @@
         <v>43.73</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12199,7 +12251,7 @@
         <v>59.37</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12225,7 +12277,7 @@
         <v>58.36</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12248,10 +12300,10 @@
         <v>38.14</v>
       </c>
       <c r="H60">
-        <v>39.12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>39.119999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>

--- a/SldcPlantpointPredictions_20Apr22.xlsx
+++ b/SldcPlantpointPredictions_20Apr22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adire\OneDrive\Desktop\gitrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6086C2EE-2F6E-4D8B-B2FC-F9DA8F5ED166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F7A6BD-8030-477A-9D2C-8C649944DF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rf" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="300">
   <si>
     <t>Sno</t>
   </si>
@@ -1323,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H285"/>
+  <dimension ref="A1:H290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="A286" sqref="A286:H290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8738,6 +8738,136 @@
         <v>0.06</v>
       </c>
       <c r="H285">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>280</v>
+      </c>
+      <c r="B286">
+        <v>515</v>
+      </c>
+      <c r="C286" t="s">
+        <v>17</v>
+      </c>
+      <c r="D286">
+        <v>5187</v>
+      </c>
+      <c r="E286" t="s">
+        <v>294</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>281</v>
+      </c>
+      <c r="B287">
+        <v>503</v>
+      </c>
+      <c r="C287" t="s">
+        <v>13</v>
+      </c>
+      <c r="D287">
+        <v>5373</v>
+      </c>
+      <c r="E287" t="s">
+        <v>295</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>0.01</v>
+      </c>
+      <c r="H287">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>282</v>
+      </c>
+      <c r="B288">
+        <v>503</v>
+      </c>
+      <c r="C288" t="s">
+        <v>13</v>
+      </c>
+      <c r="D288">
+        <v>5410</v>
+      </c>
+      <c r="E288" t="s">
+        <v>296</v>
+      </c>
+      <c r="F288">
+        <v>0.24</v>
+      </c>
+      <c r="G288">
+        <v>0.19</v>
+      </c>
+      <c r="H288">
+        <v>6.0000000000000102E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>283</v>
+      </c>
+      <c r="B289">
+        <v>502</v>
+      </c>
+      <c r="C289" t="s">
+        <v>10</v>
+      </c>
+      <c r="D289">
+        <v>5350</v>
+      </c>
+      <c r="E289" t="s">
+        <v>297</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>284</v>
+      </c>
+      <c r="B290">
+        <v>503</v>
+      </c>
+      <c r="C290" t="s">
+        <v>13</v>
+      </c>
+      <c r="D290">
+        <v>5398</v>
+      </c>
+      <c r="E290" t="s">
+        <v>298</v>
+      </c>
+      <c r="F290">
+        <v>0.12</v>
+      </c>
+      <c r="G290">
+        <v>0.06</v>
+      </c>
+      <c r="H290">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
